--- a/app/data/absenteeism_data_44.xlsx
+++ b/app/data/absenteeism_data_44.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49159</v>
+        <v>2431</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Miguel Ramos</t>
+          <t>Antônio Barros</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45086</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>9978.77</v>
+        <v>8719.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12579</v>
+        <v>77644</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Catarina Barros</t>
+          <t>Sr. Eduardo da Paz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,85 +523,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>7106.56</v>
+        <v>4302.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17641</v>
+        <v>58502</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruna Cunha</t>
+          <t>Evelyn Jesus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>4403.25</v>
+        <v>7512.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>33208</v>
+        <v>58997</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rafael Rocha</t>
+          <t>Sophie das Neves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>12037.25</v>
+        <v>9952.440000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69782</v>
+        <v>26528</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sophia Barros</t>
+          <t>Ana Beatriz Novaes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,109 +610,109 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45088</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>9576.17</v>
+        <v>8481.870000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98566</v>
+        <v>57087</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Miguel Souza</t>
+          <t>Maysa Cavalcanti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>10948.6</v>
+        <v>3041.16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>95292</v>
+        <v>79342</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Julia Peixoto</t>
+          <t>Eduarda da Paz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>11168.13</v>
+        <v>6650.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87604</v>
+        <v>19808</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Erick Fogaça</t>
+          <t>Luiz Henrique Santos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>4344.75</v>
+        <v>12426.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>31571</v>
+        <v>25161</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Sophie Moreira</t>
+          <t>Nicolas Barbosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>6226.55</v>
+        <v>8139.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31083</v>
+        <v>11039</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Olivia Nascimento</t>
+          <t>João Pedro Silveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>4803.94</v>
+        <v>6926.14</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_44.xlsx
+++ b/app/data/absenteeism_data_44.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40478</v>
+        <v>17791</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Mirella Farias</t>
+          <t>Ana Mendes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>10699.91</v>
+        <v>8268.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19746</v>
+        <v>75029</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leonardo Rezende</t>
+          <t>Yuri Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,167 +523,167 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>7349.53</v>
+        <v>5899.89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61809</v>
+        <v>58323</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vinicius Cardoso</t>
+          <t>Cauã Viana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>4489.62</v>
+        <v>4618.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>75697</v>
+        <v>1873</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Guilherme da Luz</t>
+          <t>Lucca Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>8863.18</v>
+        <v>11465.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>75320</v>
+        <v>61505</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Paulo Correia</t>
+          <t>Isaac Sales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>9122.780000000001</v>
+        <v>8652.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31478</v>
+        <v>21994</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diogo Moreira</t>
+          <t>Paulo Jesus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>6517.65</v>
+        <v>4272.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45551</v>
+        <v>92436</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Evelyn Pereira</t>
+          <t>Mariana da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>8230.549999999999</v>
+        <v>10073.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>51466</v>
+        <v>3433</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maitê Vieira</t>
+          <t>Maria Fernanda Fogaça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>8041.74</v>
+        <v>10328.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32019</v>
+        <v>36400</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Elisa da Rocha</t>
+          <t>Bárbara Mendes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>4250.91</v>
+        <v>11266.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29583</v>
+        <v>57619</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Isabel Porto</t>
+          <t>Beatriz Nogueira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>11465.96</v>
+        <v>4325.24</v>
       </c>
     </row>
   </sheetData>
